--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -187,9 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -332,7 +336,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="114">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -387,6 +391,8 @@
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -441,6 +447,8 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1711,15 +1719,15 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">MROUND(15*F2/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1">
@@ -1755,11 +1763,11 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L8" ca="1" si="0">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3-N3</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N8" ca="1" si="2">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
@@ -1803,11 +1811,11 @@
       </c>
       <c r="M4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1974,11 +1982,11 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -2416,7 +2424,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +169,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -186,6 +199,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -303,7 +464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -326,14 +487,65 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1719,11 +1931,11 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">MROUND(15*F2/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
@@ -1767,11 +1979,11 @@
       </c>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3-N3</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N8" ca="1" si="2">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1">
@@ -1807,11 +2019,11 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -2421,351 +2633,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="60">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="23">
+        <v>0.13559322033898299</v>
+      </c>
+      <c r="C2" s="23">
+        <v>7.7942322681215901E-4</v>
+      </c>
+      <c r="D2" s="24">
         <v>295</v>
       </c>
-      <c r="C2" s="11">
-        <v>0.13559322033898299</v>
-      </c>
-      <c r="D2" s="11">
-        <v>7.7942322681215901E-4</v>
-      </c>
-      <c r="E2" s="10">
-        <v>295</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E2" s="24">
         <v>1283</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="24">
         <f>'tidy dataset'!E2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="str">
+      <c r="G2" s="24" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F2," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="I2" s="10" t="str">
+      <c r="H2" s="25" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G2," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="27">
+        <v>0.50337078651685396</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.15780141843971601</v>
+      </c>
+      <c r="D3" s="28">
         <v>445</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.50337078651685396</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.15780141843971601</v>
-      </c>
-      <c r="E3" s="10">
-        <v>445</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="28">
         <v>2256</v>
       </c>
-      <c r="G3" s="10" t="str">
+      <c r="F3" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E3," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="H3" s="10" t="str">
+      <c r="G3" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F3," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="I3" s="10" t="str">
+      <c r="H3" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G3," M")</f>
         <v>$15 M</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="27">
+        <v>0.30668016194331998</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.132586367880486</v>
+      </c>
+      <c r="D4" s="28">
         <v>988</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.30668016194331998</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.132586367880486</v>
-      </c>
-      <c r="E4" s="10">
-        <v>988</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="28">
         <v>3213</v>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="F4" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E4," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F4," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G4," M")</f>
         <v>$15 M</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="27">
+        <v>0.40928270042194098</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.18611521418020699</v>
+      </c>
+      <c r="D5" s="28">
         <v>474</v>
       </c>
-      <c r="C5" s="11">
-        <v>0.40928270042194098</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.18611521418020699</v>
-      </c>
-      <c r="E5" s="10">
-        <v>474</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="28">
         <v>2031</v>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="F5" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E5," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="H5" s="10" t="str">
+      <c r="G5" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F5," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G5," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="27">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>3.3865814696485599E-2</v>
+      </c>
+      <c r="D6" s="28">
         <v>1072</v>
       </c>
-      <c r="C6" s="11">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.3865814696485599E-2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1072</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="28">
         <v>1565</v>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="F6" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E6," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="G6" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F6," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G6," M")</f>
         <v>$0 M</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="27">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1.10593713620489E-2</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1.10593713620489E-2</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="28">
         <v>1718</v>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="F7" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E7," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="G7" s="28" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F7," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G7," M")</f>
         <v>$0 M</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="31">
+        <v>0.20769230769230801</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.18510158013544001</v>
+      </c>
+      <c r="D8" s="32">
         <v>260</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.20769230769230801</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.18510158013544001</v>
-      </c>
-      <c r="E8" s="10">
-        <v>260</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="E8" s="32">
         <v>886</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="F8" s="32" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E8," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="G8" s="32" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F8," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="H8" s="33" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G8," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="tidy dataset" sheetId="2" r:id="rId2"/>
-    <sheet name="dataset for printing" sheetId="3" r:id="rId3"/>
+    <sheet name="dataset for printing (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="tidy dataset w stunting" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="tidy dataset" sheetId="2" r:id="rId4"/>
+    <sheet name="dataset for printing" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>Country</t>
   </si>
@@ -107,13 +109,55 @@
     <t>number_households(1998)</t>
   </si>
   <si>
-    <t>fraction_contaminated(1998)</t>
+    <t>number_households(2012)</t>
   </si>
   <si>
-    <t>fraction_contaminated(2012)</t>
+    <t>percent contaminated (1998)</t>
   </si>
   <si>
-    <t>number_households(2012)</t>
+    <t>percent contaminated(2012)</t>
+  </si>
+  <si>
+    <t>percent stunted (2004)</t>
+  </si>
+  <si>
+    <t>percent stunted (2011)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>percent of households with arsenic-contaminated drinking water</t>
+  </si>
+  <si>
+    <t>percent stunted children</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>community treatment</t>
+  </si>
+  <si>
+    <t>rainwater harvesting</t>
+  </si>
+  <si>
+    <t>funding (millions USD)</t>
+  </si>
+  <si>
+    <t>social/ behavior change</t>
+  </si>
+  <si>
+    <t>funding_community_treatment</t>
+  </si>
+  <si>
+    <t>All Bangladesh</t>
+  </si>
+  <si>
+    <t>fraction_stunted</t>
+  </si>
+  <si>
+    <t>funding_SBC</t>
   </si>
 </sst>
 </file>
@@ -121,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +226,48 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -347,8 +433,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,18 +748,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,9 +881,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,9 +890,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,17 +899,209 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="196">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -605,6 +1158,47 @@
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -661,6 +1255,47 @@
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -859,11 +1494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122728744"/>
-        <c:axId val="2124147576"/>
+        <c:axId val="2128660968"/>
+        <c:axId val="2142629896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122728744"/>
+        <c:axId val="2128660968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,12 +1508,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124147576"/>
+        <c:crossAx val="2142629896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124147576"/>
+        <c:axId val="2142629896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122728744"/>
+        <c:crossAx val="2128660968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1024,11 +1659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124490520"/>
-        <c:axId val="2124493512"/>
+        <c:axId val="2142687960"/>
+        <c:axId val="2142691064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124490520"/>
+        <c:axId val="2142687960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,12 +1673,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124493512"/>
+        <c:crossAx val="2142691064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124493512"/>
+        <c:axId val="2142691064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124490520"/>
+        <c:crossAx val="2142687960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1174,11 +1809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122026040"/>
-        <c:axId val="-2121749928"/>
+        <c:axId val="2142722360"/>
+        <c:axId val="2142725464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122026040"/>
+        <c:axId val="2142722360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121749928"/>
+        <c:crossAx val="2142725464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121749928"/>
+        <c:axId val="2142725464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122026040"/>
+        <c:crossAx val="2142722360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1339,11 +1974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121614360"/>
-        <c:axId val="2124810888"/>
+        <c:axId val="2129183752"/>
+        <c:axId val="2139961912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121614360"/>
+        <c:axId val="2129183752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,12 +1988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124810888"/>
+        <c:crossAx val="2139961912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124810888"/>
+        <c:axId val="2139961912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +2004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121614360"/>
+        <c:crossAx val="2129183752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,6 +2479,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13" style="34" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="41" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" s="40" customFormat="1" ht="44">
+      <c r="A2" s="50"/>
+      <c r="B2" s="65">
+        <v>1998</v>
+      </c>
+      <c r="C2" s="66">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="65">
+        <v>2004</v>
+      </c>
+      <c r="E2" s="66">
+        <v>2011</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="57">
+        <f>'tidy dataset'!D2*100</f>
+        <v>13.559322033898299</v>
+      </c>
+      <c r="C3" s="58">
+        <f>'tidy dataset'!D9*100</f>
+        <v>7.7942322681215898E-2</v>
+      </c>
+      <c r="D3" s="57">
+        <v>55.8</v>
+      </c>
+      <c r="E3" s="58">
+        <v>45.1</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <f>'tidy dataset'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <f>'tidy dataset'!F2</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="56">
+        <f xml:space="preserve"> 'tidy dataset'!G2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="60">
+        <f>'tidy dataset'!D3*100</f>
+        <v>50.337078651685395</v>
+      </c>
+      <c r="C4" s="61">
+        <f>'tidy dataset'!D10*100</f>
+        <v>15.780141843971601</v>
+      </c>
+      <c r="D4" s="60">
+        <v>52.7</v>
+      </c>
+      <c r="E4" s="61">
+        <v>41.3</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <f>'tidy dataset'!E3</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="37">
+        <f>'tidy dataset'!F3</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="60">
+        <f>'tidy dataset'!D4*100</f>
+        <v>30.668016194331997</v>
+      </c>
+      <c r="C5" s="61">
+        <f>'tidy dataset'!D11*100</f>
+        <v>13.2586367880486</v>
+      </c>
+      <c r="D5" s="60">
+        <v>52.8</v>
+      </c>
+      <c r="E5" s="61">
+        <v>43.3</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <f>'tidy dataset'!E4</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="37">
+        <f>'tidy dataset'!F4</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="60">
+        <f>'tidy dataset'!D5*100</f>
+        <v>40.9282700421941</v>
+      </c>
+      <c r="C6" s="61">
+        <f>'tidy dataset'!D12*100</f>
+        <v>18.6115214180207</v>
+      </c>
+      <c r="D6" s="60">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E6" s="61">
+        <v>34.1</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <f>'tidy dataset'!E5</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="37">
+        <f>'tidy dataset'!F5</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="60">
+        <f>'tidy dataset'!D6*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C7" s="61">
+        <f>'tidy dataset'!D13*100</f>
+        <v>3.3865814696485601</v>
+      </c>
+      <c r="D7" s="60">
+        <v>48.1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>42.9</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <f>'tidy dataset'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>'tidy dataset'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60">
+        <f>'tidy dataset'!D7*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C8" s="61">
+        <f>'tidy dataset'!D14*100</f>
+        <v>1.10593713620489</v>
+      </c>
+      <c r="D8" s="60">
+        <v>48.1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <f>'tidy dataset'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <f>'tidy dataset'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="63">
+        <f>'tidy dataset'!D8*100</f>
+        <v>20.769230769230802</v>
+      </c>
+      <c r="C9" s="64">
+        <f>'tidy dataset'!D15*100</f>
+        <v>18.510158013544</v>
+      </c>
+      <c r="D9" s="63">
+        <v>53.4</v>
+      </c>
+      <c r="E9" s="64">
+        <v>49.3</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0</v>
+      </c>
+      <c r="G9" s="70">
+        <f>'tidy dataset'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="70">
+        <f>'tidy dataset'!F8</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="72">
+        <f xml:space="preserve"> 'tidy dataset'!G8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22">
+      <c r="A10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="55">
+        <f>0.2492926*100</f>
+        <v>24.929259999999999</v>
+      </c>
+      <c r="C10" s="54">
+        <f xml:space="preserve"> 0.1078598*100</f>
+        <v>10.78598</v>
+      </c>
+      <c r="D10" s="52">
+        <v>50.6</v>
+      </c>
+      <c r="E10" s="52">
+        <v>41.3</v>
+      </c>
+      <c r="F10" s="55">
+        <v>10</v>
+      </c>
+      <c r="G10" s="53">
+        <f>SUM(G3:G9)</f>
+        <v>25</v>
+      </c>
+      <c r="H10" s="53">
+        <f>SUM(H3:H9)</f>
+        <v>35</v>
+      </c>
+      <c r="I10" s="73">
+        <f>H10+G10+F10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="33"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="33"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="5:6" s="39" customFormat="1">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="5:6" s="39" customFormat="1">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="5:6" s="39" customFormat="1">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="5:6" s="39" customFormat="1">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="75" customFormat="1" ht="34">
+      <c r="A1" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+    </row>
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="82">
+        <v>0.13559322033898299</v>
+      </c>
+      <c r="D2" s="82">
+        <f>'dataset for printing'!D2/100</f>
+        <v>0.55799999999999994</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0</v>
+      </c>
+      <c r="F2" s="81">
+        <v>10</v>
+      </c>
+      <c r="G2" s="81">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83">
+        <f>F2+E2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86">
+        <v>0.50337078651685396</v>
+      </c>
+      <c r="D3" s="86">
+        <f>'dataset for printing'!D3/100</f>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E3" s="85">
+        <v>10</v>
+      </c>
+      <c r="F3" s="85">
+        <v>5</v>
+      </c>
+      <c r="G3" s="85">
+        <v>0</v>
+      </c>
+      <c r="H3" s="87">
+        <f t="shared" ref="H3:H8" si="0">F3+E3</f>
+        <v>15</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="86">
+        <v>0.30668016194331998</v>
+      </c>
+      <c r="D4" s="86">
+        <f>'dataset for printing'!D4/100</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E4" s="85">
+        <v>10</v>
+      </c>
+      <c r="F4" s="85">
+        <v>5</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0</v>
+      </c>
+      <c r="H4" s="87">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="86">
+        <v>0.40928270042194098</v>
+      </c>
+      <c r="D5" s="86">
+        <f>'dataset for printing'!D5/100</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E5" s="85">
+        <v>5</v>
+      </c>
+      <c r="F5" s="85">
+        <v>5</v>
+      </c>
+      <c r="G5" s="85">
+        <v>0</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="86">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="D6" s="86">
+        <f>'dataset for printing'!D6/100</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="E6" s="85">
+        <v>0</v>
+      </c>
+      <c r="F6" s="85">
+        <v>0</v>
+      </c>
+      <c r="G6" s="85">
+        <v>0</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="86">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="D7" s="86">
+        <f>'dataset for printing'!D7/100</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="E7" s="85">
+        <v>0</v>
+      </c>
+      <c r="F7" s="85">
+        <v>0</v>
+      </c>
+      <c r="G7" s="85">
+        <v>0</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="90">
+        <v>0.20769230769230801</v>
+      </c>
+      <c r="D8" s="90">
+        <f>'dataset for printing'!D8/100</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E8" s="89">
+        <f>O10</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="89">
+        <v>10</v>
+      </c>
+      <c r="G8" s="89">
+        <v>0</v>
+      </c>
+      <c r="H8" s="91">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="94">
+        <f>'dataset for printing'!B9/100</f>
+        <v>0.2492926</v>
+      </c>
+      <c r="D9" s="94">
+        <f>'dataset for printing (2)'!D10/100</f>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E9" s="93">
+        <f>SUM(E2:E8)</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="93">
+        <f>SUM(F2:F8)</f>
+        <v>35</v>
+      </c>
+      <c r="G9" s="93">
+        <v>10</v>
+      </c>
+      <c r="H9" s="95">
+        <v>70</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="82">
+        <v>7.7942322681215901E-4</v>
+      </c>
+      <c r="D10" s="82">
+        <f>'dataset for printing (2)'!E3/100</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0</v>
+      </c>
+      <c r="F10" s="81">
+        <v>10</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0</v>
+      </c>
+      <c r="H10" s="83">
+        <f>F10+E10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17">
+      <c r="A11" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="86">
+        <v>0.15780141843971601</v>
+      </c>
+      <c r="D11" s="86">
+        <f>'dataset for printing (2)'!E4/100</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E11" s="85">
+        <v>10</v>
+      </c>
+      <c r="F11" s="85">
+        <v>5</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" ref="H11:H16" si="1">F11+E11</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="86">
+        <v>0.132586367880486</v>
+      </c>
+      <c r="D12" s="86">
+        <f>'dataset for printing (2)'!E5/100</f>
+        <v>0.433</v>
+      </c>
+      <c r="E12" s="85">
+        <v>10</v>
+      </c>
+      <c r="F12" s="85">
+        <v>5</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="86">
+        <v>0.18611521418020699</v>
+      </c>
+      <c r="D13" s="86">
+        <f>'dataset for printing (2)'!E6/100</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E13" s="85">
+        <v>5</v>
+      </c>
+      <c r="F13" s="85">
+        <v>5</v>
+      </c>
+      <c r="G13" s="85">
+        <v>0</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17">
+      <c r="A14" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="86">
+        <v>3.3865814696485599E-2</v>
+      </c>
+      <c r="D14" s="86">
+        <f>'dataset for printing (2)'!E7/100</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17">
+      <c r="A15" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="86">
+        <v>1.10593713620489E-2</v>
+      </c>
+      <c r="D15" s="86">
+        <f>'dataset for printing (2)'!E8/100</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E15" s="85">
+        <v>0</v>
+      </c>
+      <c r="F15" s="85">
+        <v>0</v>
+      </c>
+      <c r="G15" s="85">
+        <v>0</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17">
+      <c r="A16" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="90">
+        <v>0.18510158013544001</v>
+      </c>
+      <c r="D16" s="90">
+        <f>'dataset for printing (2)'!E9/100</f>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E16" s="89">
+        <f>O18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="89">
+        <v>10</v>
+      </c>
+      <c r="G16" s="89">
+        <v>0</v>
+      </c>
+      <c r="H16" s="91">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="90">
+        <f>'dataset for printing'!C9/100</f>
+        <v>0.10785980000000001</v>
+      </c>
+      <c r="D17" s="90">
+        <f>'dataset for printing (2)'!E10/100</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E17" s="89">
+        <f>SUM(E10:E16)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="89">
+        <f>SUM(F10:F16)</f>
+        <v>35</v>
+      </c>
+      <c r="G17" s="89">
+        <v>10</v>
+      </c>
+      <c r="H17" s="91">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1909,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <f>C2-E2</f>
+        <f t="shared" ref="D2:D8" si="0">C2-E2</f>
         <v>10</v>
       </c>
       <c r="E2">
@@ -1922,20 +3517,20 @@
         <v>7.7942322681215901E-4</v>
       </c>
       <c r="H2" s="2">
-        <f>(G2-F2)/F2</f>
+        <f t="shared" ref="H2:H8" si="1">(G2-F2)/F2</f>
         <v>-0.99425175370226038</v>
       </c>
       <c r="I2" s="3">
-        <f>F2-G2</f>
+        <f t="shared" ref="I2:I8" si="2">F2-G2</f>
         <v>0.13481379711217084</v>
       </c>
       <c r="L2" s="6">
         <f ca="1">MROUND(15*F2/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
@@ -1953,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="6">
-        <f>C3-E3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E3" s="6">
@@ -1966,23 +3561,23 @@
         <v>0.15780141843971601</v>
       </c>
       <c r="H3" s="7">
-        <f>(G3-F3)/F3</f>
+        <f t="shared" si="1"/>
         <v>-0.68651057497467138</v>
       </c>
       <c r="I3" s="8">
-        <f>F3-G3</f>
+        <f t="shared" si="2"/>
         <v>0.34556936807713795</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L8" ca="1" si="0">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
+        <f t="shared" ref="L3:L8" ca="1" si="3">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
         <v>60</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M8" ca="1" si="1">L3-N3</f>
+        <f t="shared" ref="M3:M8" ca="1" si="4">L3-N3</f>
         <v>45</v>
       </c>
       <c r="N3" s="9">
-        <f t="shared" ref="N3:N8" ca="1" si="2">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
+        <f t="shared" ref="N3:N8" ca="1" si="5">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
         <v>15</v>
       </c>
     </row>
@@ -1997,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="6">
-        <f>C4-E4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E4" s="6">
@@ -2010,24 +3605,24 @@
         <v>0.132586367880486</v>
       </c>
       <c r="H4" s="7">
-        <f>(G4-F4)/F4</f>
+        <f t="shared" si="1"/>
         <v>-0.56767217337980158</v>
       </c>
       <c r="I4" s="8">
-        <f>F4-G4</f>
+        <f t="shared" si="2"/>
         <v>0.17409379406283398</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2041,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-E5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E5" s="6">
@@ -2054,23 +3649,23 @@
         <v>0.18611521418020699</v>
       </c>
       <c r="H5" s="7">
-        <f>(G5-F5)/F5</f>
+        <f t="shared" si="1"/>
         <v>-0.54526488906485515</v>
       </c>
       <c r="I5" s="8">
-        <f>F5-G5</f>
+        <f t="shared" si="2"/>
         <v>0.22316748624173399</v>
       </c>
       <c r="L5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
       <c r="N5" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -2085,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <f>C6-E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="6">
@@ -2098,22 +3693,22 @@
         <v>3.3865814696485599E-2</v>
       </c>
       <c r="H6" s="7">
-        <f>(G6-F6)/F6</f>
+        <f t="shared" si="1"/>
         <v>-0.44993707038435532</v>
       </c>
       <c r="I6" s="8">
-        <f>F6-G6</f>
+        <f t="shared" si="2"/>
         <v>2.7701349482618903E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2128,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f>C7-E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
@@ -2141,11 +3736,11 @@
         <v>1.10593713620489E-2</v>
       </c>
       <c r="H7" s="2">
-        <f>(G7-F7)/F7</f>
+        <f t="shared" si="1"/>
         <v>-0.82036899848308453</v>
       </c>
       <c r="I7" s="3">
-        <f>F7-G7</f>
+        <f t="shared" si="2"/>
         <v>5.05077928170556E-2</v>
       </c>
       <c r="L7" s="6">
@@ -2156,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2171,7 +3766,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="6">
-        <f ca="1">C8-E8</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="E8" s="6">
@@ -2185,23 +3780,23 @@
         <v>0.18510158013544001</v>
       </c>
       <c r="H8" s="7">
-        <f>(G8-F8)/F8</f>
+        <f t="shared" si="1"/>
         <v>-0.10877016971825318</v>
       </c>
       <c r="I8" s="8">
-        <f>F8-G8</f>
+        <f t="shared" si="2"/>
         <v>2.2590727556868001E-2</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>25</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2215,6 +3810,7 @@
   <sortState ref="A2:I9">
     <sortCondition ref="B1"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2226,12 +3822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2618,6 +4214,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -2631,12 +4228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2644,313 +4241,402 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.1640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" ht="60">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="60">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1">
+    <row r="2" spans="1:10" ht="36" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23">
-        <v>0.13559322033898299</v>
-      </c>
-      <c r="C2" s="23">
-        <v>7.7942322681215901E-4</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="B2" s="31">
+        <f>'tidy dataset'!D2*100</f>
+        <v>13.559322033898299</v>
+      </c>
+      <c r="C2" s="31">
+        <f>'tidy dataset'!D9*100</f>
+        <v>7.7942322681215898E-2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>55.8</v>
+      </c>
+      <c r="E2" s="34">
+        <v>45.1</v>
+      </c>
+      <c r="F2" s="23">
         <v>295</v>
       </c>
-      <c r="E2" s="24">
+      <c r="G2" s="23">
         <v>1283</v>
       </c>
-      <c r="F2" s="24">
+      <c r="H2" s="23">
         <f>'tidy dataset'!E2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="24" t="str">
+      <c r="I2" s="23" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F2," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="H2" s="25" t="str">
+      <c r="J2" s="24" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G2," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:10" ht="36" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27">
-        <v>0.50337078651685396</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0.15780141843971601</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="B3" s="31">
+        <f>'tidy dataset'!D3*100</f>
+        <v>50.337078651685395</v>
+      </c>
+      <c r="C3" s="31">
+        <f>'tidy dataset'!D10*100</f>
+        <v>15.780141843971601</v>
+      </c>
+      <c r="D3" s="34">
+        <v>52.7</v>
+      </c>
+      <c r="E3" s="34">
+        <v>41.3</v>
+      </c>
+      <c r="F3" s="26">
         <v>445</v>
       </c>
-      <c r="E3" s="28">
+      <c r="G3" s="26">
         <v>2256</v>
       </c>
-      <c r="F3" s="28" t="str">
+      <c r="H3" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E3," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="G3" s="28" t="str">
+      <c r="I3" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F3," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="H3" s="29" t="str">
+      <c r="J3" s="27" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G3," M")</f>
         <v>$15 M</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:10" ht="36" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27">
-        <v>0.30668016194331998</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0.132586367880486</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="B4" s="31">
+        <f>'tidy dataset'!D4*100</f>
+        <v>30.668016194331997</v>
+      </c>
+      <c r="C4" s="31">
+        <f>'tidy dataset'!D11*100</f>
+        <v>13.2586367880486</v>
+      </c>
+      <c r="D4" s="34">
+        <v>52.8</v>
+      </c>
+      <c r="E4" s="34">
+        <v>43.3</v>
+      </c>
+      <c r="F4" s="26">
         <v>988</v>
       </c>
-      <c r="E4" s="28">
+      <c r="G4" s="26">
         <v>3213</v>
       </c>
-      <c r="F4" s="28" t="str">
+      <c r="H4" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E4," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="G4" s="28" t="str">
+      <c r="I4" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F4," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="H4" s="29" t="str">
+      <c r="J4" s="27" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G4," M")</f>
         <v>$15 M</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" ht="36" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27">
-        <v>0.40928270042194098</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.18611521418020699</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="B5" s="31">
+        <f>'tidy dataset'!D5*100</f>
+        <v>40.9282700421941</v>
+      </c>
+      <c r="C5" s="31">
+        <f>'tidy dataset'!D12*100</f>
+        <v>18.6115214180207</v>
+      </c>
+      <c r="D5" s="34">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E5" s="34">
+        <v>34.1</v>
+      </c>
+      <c r="F5" s="26">
         <v>474</v>
       </c>
-      <c r="E5" s="28">
+      <c r="G5" s="26">
         <v>2031</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="H5" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E5," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="G5" s="28" t="str">
+      <c r="I5" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F5," M")</f>
         <v>$5 M</v>
       </c>
-      <c r="H5" s="29" t="str">
+      <c r="J5" s="27" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G5," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:10" ht="36" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="C6" s="27">
-        <v>3.3865814696485599E-2</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="31">
+        <f>'tidy dataset'!D6*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C6" s="31">
+        <f>'tidy dataset'!D13*100</f>
+        <v>3.3865814696485601</v>
+      </c>
+      <c r="D6" s="34">
+        <v>48.1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>42.9</v>
+      </c>
+      <c r="F6" s="26">
         <v>1072</v>
       </c>
-      <c r="E6" s="28">
+      <c r="G6" s="26">
         <v>1565</v>
       </c>
-      <c r="F6" s="28" t="str">
+      <c r="H6" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E6," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="G6" s="28" t="str">
+      <c r="I6" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F6," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="H6" s="29" t="str">
+      <c r="J6" s="27" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G6," M")</f>
         <v>$0 M</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:10" ht="36" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="C7" s="27">
-        <v>1.10593713620489E-2</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="31">
+        <f>'tidy dataset'!D7*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C7" s="31">
+        <f>'tidy dataset'!D14*100</f>
+        <v>1.10593713620489</v>
+      </c>
+      <c r="D7" s="34">
+        <v>48.1</v>
+      </c>
+      <c r="E7" s="34">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="28">
+      <c r="G7" s="26">
         <v>1718</v>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="H7" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E7," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="G7" s="28" t="str">
+      <c r="I7" s="26" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F7," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="J7" s="27" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G7," M")</f>
         <v>$0 M</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:10" ht="36" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="31">
-        <v>0.20769230769230801</v>
+        <f>'tidy dataset'!D8*100</f>
+        <v>20.769230769230802</v>
       </c>
       <c r="C8" s="31">
-        <v>0.18510158013544001</v>
-      </c>
-      <c r="D8" s="32">
+        <f>'tidy dataset'!D15*100</f>
+        <v>18.510158013544</v>
+      </c>
+      <c r="D8" s="34">
+        <v>53.4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>49.3</v>
+      </c>
+      <c r="F8" s="29">
         <v>260</v>
       </c>
-      <c r="E8" s="32">
+      <c r="G8" s="29">
         <v>886</v>
       </c>
-      <c r="F8" s="32" t="str">
+      <c r="H8" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!E8," M")</f>
         <v>$0 M</v>
       </c>
-      <c r="G8" s="32" t="str">
+      <c r="I8" s="29" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!F8," M")</f>
         <v>$10 M</v>
       </c>
-      <c r="H8" s="33" t="str">
+      <c r="J8" s="30" t="str">
         <f>CONCATENATE("$", 'tidy dataset'!G8," M")</f>
         <v>$10 M</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="33">
+        <f>0.2492926*100</f>
+        <v>24.929259999999999</v>
+      </c>
+      <c r="C9" s="11">
+        <f xml:space="preserve"> 0.1078598*100</f>
+        <v>10.78598</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="33"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="33"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="35"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="35"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="35"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset for printing (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="tidy dataset w stunting" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="tidy dataset" sheetId="2" r:id="rId4"/>
-    <sheet name="dataset for printing" sheetId="3" r:id="rId5"/>
+    <sheet name="tidy dataset w stunting" sheetId="4" r:id="rId1"/>
+    <sheet name="plot chg" sheetId="6" r:id="rId2"/>
+    <sheet name="dataset for printing (final)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="tidy dataset" sheetId="2" r:id="rId5"/>
+    <sheet name="dataset for printing" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -159,6 +160,9 @@
   <si>
     <t>funding_SBC</t>
   </si>
+  <si>
+    <t>decr. As</t>
+  </si>
 </sst>
 </file>
 
@@ -633,7 +637,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -830,8 +834,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1034,9 +1040,6 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1101,7 +1104,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="198">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1199,6 +1202,7 @@
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1296,6 +1300,7 @@
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2479,10 +2484,991 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="74" customFormat="1" ht="34">
+      <c r="A1" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="81">
+        <v>0.13559322033898299</v>
+      </c>
+      <c r="D2" s="81">
+        <f>'dataset for printing'!D2/100</f>
+        <v>0.55799999999999994</v>
+      </c>
+      <c r="E2" s="80">
+        <v>0</v>
+      </c>
+      <c r="F2" s="80">
+        <v>10</v>
+      </c>
+      <c r="G2" s="80">
+        <v>0</v>
+      </c>
+      <c r="H2" s="82">
+        <f>F2+E2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.50337078651685396</v>
+      </c>
+      <c r="D3" s="85">
+        <f>'dataset for printing'!D3/100</f>
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E3" s="84">
+        <v>10</v>
+      </c>
+      <c r="F3" s="84">
+        <v>5</v>
+      </c>
+      <c r="G3" s="84">
+        <v>0</v>
+      </c>
+      <c r="H3" s="86">
+        <f t="shared" ref="H3:H8" si="0">F3+E3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="85">
+        <v>0.30668016194331998</v>
+      </c>
+      <c r="D4" s="85">
+        <f>'dataset for printing'!D4/100</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E4" s="84">
+        <v>10</v>
+      </c>
+      <c r="F4" s="84">
+        <v>5</v>
+      </c>
+      <c r="G4" s="84">
+        <v>0</v>
+      </c>
+      <c r="H4" s="86">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.40928270042194098</v>
+      </c>
+      <c r="D5" s="85">
+        <f>'dataset for printing'!D5/100</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E5" s="84">
+        <v>5</v>
+      </c>
+      <c r="F5" s="84">
+        <v>5</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0</v>
+      </c>
+      <c r="H5" s="86">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="85">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="D6" s="85">
+        <f>'dataset for printing'!D6/100</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0</v>
+      </c>
+      <c r="G6" s="84">
+        <v>0</v>
+      </c>
+      <c r="H6" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="85">
+        <v>6.1567164179104503E-2</v>
+      </c>
+      <c r="D7" s="85">
+        <f>'dataset for printing'!D7/100</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0</v>
+      </c>
+      <c r="H7" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="89">
+        <v>0.20769230769230801</v>
+      </c>
+      <c r="D8" s="89">
+        <f>'dataset for printing'!D8/100</f>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E8" s="88">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
+        <v>10</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="90">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="93">
+        <f>'dataset for printing'!B9/100</f>
+        <v>0.2492926</v>
+      </c>
+      <c r="D9" s="93">
+        <f>'dataset for printing (final)'!D10/100</f>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E9" s="92">
+        <f>SUM(E2:E8)</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="92">
+        <f>SUM(F2:F8)</f>
+        <v>35</v>
+      </c>
+      <c r="G9" s="92">
+        <v>10</v>
+      </c>
+      <c r="H9" s="94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="81">
+        <v>7.7942322681215901E-4</v>
+      </c>
+      <c r="D10" s="81">
+        <f>'dataset for printing (final)'!E3/100</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E10" s="80">
+        <v>0</v>
+      </c>
+      <c r="F10" s="80">
+        <v>10</v>
+      </c>
+      <c r="G10" s="80">
+        <v>0</v>
+      </c>
+      <c r="H10" s="82">
+        <f>F10+E10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="85">
+        <v>0.15780141843971601</v>
+      </c>
+      <c r="D11" s="85">
+        <f>'dataset for printing (final)'!E4/100</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E11" s="84">
+        <v>10</v>
+      </c>
+      <c r="F11" s="84">
+        <v>5</v>
+      </c>
+      <c r="G11" s="84">
+        <v>0</v>
+      </c>
+      <c r="H11" s="86">
+        <f t="shared" ref="H11:H16" si="1">F11+E11</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="85">
+        <v>0.132586367880486</v>
+      </c>
+      <c r="D12" s="85">
+        <f>'dataset for printing (final)'!E5/100</f>
+        <v>0.433</v>
+      </c>
+      <c r="E12" s="84">
+        <v>10</v>
+      </c>
+      <c r="F12" s="84">
+        <v>5</v>
+      </c>
+      <c r="G12" s="84">
+        <v>0</v>
+      </c>
+      <c r="H12" s="86">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="85">
+        <v>0.18611521418020699</v>
+      </c>
+      <c r="D13" s="85">
+        <f>'dataset for printing (final)'!E6/100</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E13" s="84">
+        <v>5</v>
+      </c>
+      <c r="F13" s="84">
+        <v>5</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0</v>
+      </c>
+      <c r="H13" s="86">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="85">
+        <v>3.3865814696485599E-2</v>
+      </c>
+      <c r="D14" s="85">
+        <f>'dataset for printing (final)'!E7/100</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E14" s="84">
+        <v>0</v>
+      </c>
+      <c r="F14" s="84">
+        <v>0</v>
+      </c>
+      <c r="G14" s="84">
+        <v>0</v>
+      </c>
+      <c r="H14" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="85">
+        <v>1.10593713620489E-2</v>
+      </c>
+      <c r="D15" s="85">
+        <f>'dataset for printing (final)'!E8/100</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E15" s="84">
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0</v>
+      </c>
+      <c r="G15" s="84">
+        <v>0</v>
+      </c>
+      <c r="H15" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="89">
+        <v>0.18510158013544001</v>
+      </c>
+      <c r="D16" s="89">
+        <f>'dataset for printing (final)'!E9/100</f>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E16" s="88">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="88">
+        <v>10</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+      <c r="H16" s="90">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="89">
+        <f>'dataset for printing'!C9/100</f>
+        <v>0.10785980000000001</v>
+      </c>
+      <c r="D17" s="89">
+        <f>'dataset for printing (final)'!E10/100</f>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E17" s="88">
+        <f>SUM(E10:E16)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="88">
+        <f>SUM(F10:F16)</f>
+        <v>35</v>
+      </c>
+      <c r="G17" s="88">
+        <v>10</v>
+      </c>
+      <c r="H17" s="90">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="E8 E16" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13" style="34" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="41" customFormat="1" ht="68" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" s="40" customFormat="1" ht="44">
+      <c r="A2" s="50"/>
+      <c r="B2" s="65">
+        <v>1998</v>
+      </c>
+      <c r="C2" s="66">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="65">
+        <v>2004</v>
+      </c>
+      <c r="E2" s="66">
+        <v>2011</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="57">
+        <f>'tidy dataset'!D2*100</f>
+        <v>13.559322033898299</v>
+      </c>
+      <c r="C3" s="58">
+        <f>'tidy dataset'!D9*100</f>
+        <v>7.7942322681215898E-2</v>
+      </c>
+      <c r="D3" s="57">
+        <v>55.8</v>
+      </c>
+      <c r="E3" s="58">
+        <v>45.1</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <f>'tidy dataset'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <f>'tidy dataset'!F2</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="56">
+        <f xml:space="preserve"> 'tidy dataset'!G2</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="34">
+        <f>B3-C3</f>
+        <v>13.481379711217084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="60">
+        <f>'tidy dataset'!D3*100</f>
+        <v>50.337078651685395</v>
+      </c>
+      <c r="C4" s="61">
+        <f>'tidy dataset'!D10*100</f>
+        <v>15.780141843971601</v>
+      </c>
+      <c r="D4" s="60">
+        <v>52.7</v>
+      </c>
+      <c r="E4" s="61">
+        <v>41.3</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <f>'tidy dataset'!E3</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="37">
+        <f>'tidy dataset'!F3</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G3</f>
+        <v>15</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" ref="J4:J10" si="0">B4-C4</f>
+        <v>34.556936807713797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="60">
+        <f>'tidy dataset'!D4*100</f>
+        <v>30.668016194331997</v>
+      </c>
+      <c r="C5" s="61">
+        <f>'tidy dataset'!D11*100</f>
+        <v>13.2586367880486</v>
+      </c>
+      <c r="D5" s="60">
+        <v>52.8</v>
+      </c>
+      <c r="E5" s="61">
+        <v>43.3</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <f>'tidy dataset'!E4</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="37">
+        <f>'tidy dataset'!F4</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G4</f>
+        <v>15</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="0"/>
+        <v>17.409379406283399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="60">
+        <f>'tidy dataset'!D5*100</f>
+        <v>40.9282700421941</v>
+      </c>
+      <c r="C6" s="61">
+        <f>'tidy dataset'!D12*100</f>
+        <v>18.6115214180207</v>
+      </c>
+      <c r="D6" s="60">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E6" s="61">
+        <v>34.1</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <f>'tidy dataset'!E5</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="37">
+        <f>'tidy dataset'!F5</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G5</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="34">
+        <f t="shared" si="0"/>
+        <v>22.3167486241734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="60">
+        <f>'tidy dataset'!D6*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C7" s="61">
+        <f>'tidy dataset'!D13*100</f>
+        <v>3.3865814696485601</v>
+      </c>
+      <c r="D7" s="60">
+        <v>48.1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>42.9</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <f>'tidy dataset'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>'tidy dataset'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" si="0"/>
+        <v>2.7701349482618904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60">
+        <f>'tidy dataset'!D7*100</f>
+        <v>6.1567164179104505</v>
+      </c>
+      <c r="C8" s="61">
+        <f>'tidy dataset'!D14*100</f>
+        <v>1.10593713620489</v>
+      </c>
+      <c r="D8" s="60">
+        <v>48.1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <f>'tidy dataset'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <f>'tidy dataset'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <f xml:space="preserve"> 'tidy dataset'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="34">
+        <f t="shared" si="0"/>
+        <v>5.0507792817055606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="63">
+        <f>'tidy dataset'!D8*100</f>
+        <v>20.769230769230802</v>
+      </c>
+      <c r="C9" s="64">
+        <f>'tidy dataset'!D15*100</f>
+        <v>18.510158013544</v>
+      </c>
+      <c r="D9" s="63">
+        <v>53.4</v>
+      </c>
+      <c r="E9" s="64">
+        <v>49.3</v>
+      </c>
+      <c r="F9" s="69">
+        <v>0</v>
+      </c>
+      <c r="G9" s="70">
+        <f>'tidy dataset'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="70">
+        <f>'tidy dataset'!F8</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="72">
+        <f xml:space="preserve"> 'tidy dataset'!G8</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="0"/>
+        <v>2.2590727556868018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22">
+      <c r="A10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="55">
+        <f>0.2492926*100</f>
+        <v>24.929259999999999</v>
+      </c>
+      <c r="C10" s="54">
+        <f xml:space="preserve"> 0.1078598*100</f>
+        <v>10.78598</v>
+      </c>
+      <c r="D10" s="52">
+        <v>50.6</v>
+      </c>
+      <c r="E10" s="52">
+        <v>41.3</v>
+      </c>
+      <c r="F10" s="55">
+        <v>10</v>
+      </c>
+      <c r="G10" s="53">
+        <f>SUM(G3:G9)</f>
+        <v>25</v>
+      </c>
+      <c r="H10" s="53">
+        <f>SUM(H3:H9)</f>
+        <v>35</v>
+      </c>
+      <c r="I10" s="73">
+        <f>H10+G10+F10</f>
+        <v>70</v>
+      </c>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="33"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="33"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="5:6" s="39" customFormat="1">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="5:6" s="39" customFormat="1">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="5:6" s="39" customFormat="1">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="5:6" s="39" customFormat="1">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:I10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2911,533 +3897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="A1:H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="75" customFormat="1" ht="34">
-      <c r="A1" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-    </row>
-    <row r="2" spans="1:10" ht="17">
-      <c r="A2" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="82">
-        <v>0.13559322033898299</v>
-      </c>
-      <c r="D2" s="82">
-        <f>'dataset for printing'!D2/100</f>
-        <v>0.55799999999999994</v>
-      </c>
-      <c r="E2" s="81">
-        <v>0</v>
-      </c>
-      <c r="F2" s="81">
-        <v>10</v>
-      </c>
-      <c r="G2" s="81">
-        <v>0</v>
-      </c>
-      <c r="H2" s="83">
-        <f>F2+E2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="86">
-        <v>0.50337078651685396</v>
-      </c>
-      <c r="D3" s="86">
-        <f>'dataset for printing'!D3/100</f>
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="E3" s="85">
-        <v>10</v>
-      </c>
-      <c r="F3" s="85">
-        <v>5</v>
-      </c>
-      <c r="G3" s="85">
-        <v>0</v>
-      </c>
-      <c r="H3" s="87">
-        <f t="shared" ref="H3:H8" si="0">F3+E3</f>
-        <v>15</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="86">
-        <v>0.30668016194331998</v>
-      </c>
-      <c r="D4" s="86">
-        <f>'dataset for printing'!D4/100</f>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="E4" s="85">
-        <v>10</v>
-      </c>
-      <c r="F4" s="85">
-        <v>5</v>
-      </c>
-      <c r="G4" s="85">
-        <v>0</v>
-      </c>
-      <c r="H4" s="87">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="86">
-        <v>0.40928270042194098</v>
-      </c>
-      <c r="D5" s="86">
-        <f>'dataset for printing'!D5/100</f>
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E5" s="85">
-        <v>5</v>
-      </c>
-      <c r="F5" s="85">
-        <v>5</v>
-      </c>
-      <c r="G5" s="85">
-        <v>0</v>
-      </c>
-      <c r="H5" s="87">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="86">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="D6" s="86">
-        <f>'dataset for printing'!D6/100</f>
-        <v>0.48100000000000004</v>
-      </c>
-      <c r="E6" s="85">
-        <v>0</v>
-      </c>
-      <c r="F6" s="85">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85">
-        <v>0</v>
-      </c>
-      <c r="H6" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="86">
-        <v>6.1567164179104503E-2</v>
-      </c>
-      <c r="D7" s="86">
-        <f>'dataset for printing'!D7/100</f>
-        <v>0.48100000000000004</v>
-      </c>
-      <c r="E7" s="85">
-        <v>0</v>
-      </c>
-      <c r="F7" s="85">
-        <v>0</v>
-      </c>
-      <c r="G7" s="85">
-        <v>0</v>
-      </c>
-      <c r="H7" s="87">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
-      <c r="A8" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="90">
-        <v>0.20769230769230801</v>
-      </c>
-      <c r="D8" s="90">
-        <f>'dataset for printing'!D8/100</f>
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="E8" s="89">
-        <f>O10</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="89">
-        <v>10</v>
-      </c>
-      <c r="G8" s="89">
-        <v>0</v>
-      </c>
-      <c r="H8" s="91">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="94">
-        <f>'dataset for printing'!B9/100</f>
-        <v>0.2492926</v>
-      </c>
-      <c r="D9" s="94">
-        <f>'dataset for printing (2)'!D10/100</f>
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E9" s="93">
-        <f>SUM(E2:E8)</f>
-        <v>25</v>
-      </c>
-      <c r="F9" s="93">
-        <f>SUM(F2:F8)</f>
-        <v>35</v>
-      </c>
-      <c r="G9" s="93">
-        <v>10</v>
-      </c>
-      <c r="H9" s="95">
-        <v>70</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="82">
-        <v>7.7942322681215901E-4</v>
-      </c>
-      <c r="D10" s="82">
-        <f>'dataset for printing (2)'!E3/100</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="E10" s="81">
-        <v>0</v>
-      </c>
-      <c r="F10" s="81">
-        <v>10</v>
-      </c>
-      <c r="G10" s="81">
-        <v>0</v>
-      </c>
-      <c r="H10" s="83">
-        <f>F10+E10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
-      <c r="A11" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="86">
-        <v>0.15780141843971601</v>
-      </c>
-      <c r="D11" s="86">
-        <f>'dataset for printing (2)'!E4/100</f>
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="E11" s="85">
-        <v>10</v>
-      </c>
-      <c r="F11" s="85">
-        <v>5</v>
-      </c>
-      <c r="G11" s="85">
-        <v>0</v>
-      </c>
-      <c r="H11" s="87">
-        <f t="shared" ref="H11:H16" si="1">F11+E11</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="86">
-        <v>0.132586367880486</v>
-      </c>
-      <c r="D12" s="86">
-        <f>'dataset for printing (2)'!E5/100</f>
-        <v>0.433</v>
-      </c>
-      <c r="E12" s="85">
-        <v>10</v>
-      </c>
-      <c r="F12" s="85">
-        <v>5</v>
-      </c>
-      <c r="G12" s="85">
-        <v>0</v>
-      </c>
-      <c r="H12" s="87">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="86">
-        <v>0.18611521418020699</v>
-      </c>
-      <c r="D13" s="86">
-        <f>'dataset for printing (2)'!E6/100</f>
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="E13" s="85">
-        <v>5</v>
-      </c>
-      <c r="F13" s="85">
-        <v>5</v>
-      </c>
-      <c r="G13" s="85">
-        <v>0</v>
-      </c>
-      <c r="H13" s="87">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="86">
-        <v>3.3865814696485599E-2</v>
-      </c>
-      <c r="D14" s="86">
-        <f>'dataset for printing (2)'!E7/100</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E14" s="85">
-        <v>0</v>
-      </c>
-      <c r="F14" s="85">
-        <v>0</v>
-      </c>
-      <c r="G14" s="85">
-        <v>0</v>
-      </c>
-      <c r="H14" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
-      <c r="A15" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="86">
-        <v>1.10593713620489E-2</v>
-      </c>
-      <c r="D15" s="86">
-        <f>'dataset for printing (2)'!E8/100</f>
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E15" s="85">
-        <v>0</v>
-      </c>
-      <c r="F15" s="85">
-        <v>0</v>
-      </c>
-      <c r="G15" s="85">
-        <v>0</v>
-      </c>
-      <c r="H15" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="90">
-        <v>0.18510158013544001</v>
-      </c>
-      <c r="D16" s="90">
-        <f>'dataset for printing (2)'!E9/100</f>
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E16" s="89">
-        <f>O18</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="89">
-        <v>10</v>
-      </c>
-      <c r="G16" s="89">
-        <v>0</v>
-      </c>
-      <c r="H16" s="91">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="90">
-        <f>'dataset for printing'!C9/100</f>
-        <v>0.10785980000000001</v>
-      </c>
-      <c r="D17" s="90">
-        <f>'dataset for printing (2)'!E10/100</f>
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="E17" s="89">
-        <f>SUM(E10:E16)</f>
-        <v>25</v>
-      </c>
-      <c r="F17" s="89">
-        <f>SUM(F10:F16)</f>
-        <v>35</v>
-      </c>
-      <c r="G17" s="89">
-        <v>10</v>
-      </c>
-      <c r="H17" s="91">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -3530,11 +3990,11 @@
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1">
@@ -3570,11 +4030,11 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L8" ca="1" si="3">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M8" ca="1" si="4">L3-N3</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N8" ca="1" si="5">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
@@ -3614,7 +4074,7 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ca="1" si="4"/>
@@ -3622,7 +4082,7 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3658,11 +4118,11 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -3822,12 +4282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4228,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>

--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tidy dataset w stunting" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>Country</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>decr. As</t>
+  </si>
+  <si>
+    <t>decr. Stunting</t>
   </si>
 </sst>
 </file>
@@ -1330,6 +1333,306 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'plot chg'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'plot chg'!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.40000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2092816872"/>
+        <c:axId val="-2091930104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2092816872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091930104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2091930104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092816872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'plot chg'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'plot chg'!$J$3:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-13.48137971121708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-34.5569368077138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.4093794062834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.3167486241734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.77013494826189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.05077928170556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.259072755686802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2091856888"/>
+        <c:axId val="-2091886952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2091856888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091886952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2091886952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091856888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
@@ -1551,7 +1854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1716,7 +2019,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1866,7 +2169,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2032,6 +2335,73 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2486,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2999,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3019,7 +3389,7 @@
     <col min="10" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="41" customFormat="1" ht="68" customHeight="1">
+    <row r="1" spans="1:11" s="41" customFormat="1" ht="68" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
@@ -3038,7 +3408,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:10" s="40" customFormat="1" ht="44">
+    <row r="2" spans="1:11" s="40" customFormat="1" ht="44">
       <c r="A2" s="50"/>
       <c r="B2" s="65">
         <v>1998</v>
@@ -3067,8 +3437,11 @@
       <c r="J2" s="40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1">
+      <c r="K2" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
@@ -3102,11 +3475,15 @@
         <v>10</v>
       </c>
       <c r="J3" s="34">
-        <f>B3-C3</f>
-        <v>13.481379711217084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" customHeight="1">
+        <f>C3-B3</f>
+        <v>-13.481379711217084</v>
+      </c>
+      <c r="K3" s="34">
+        <f>E3-D3</f>
+        <v>-10.699999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1">
       <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
@@ -3140,11 +3517,15 @@
         <v>15</v>
       </c>
       <c r="J4" s="34">
-        <f t="shared" ref="J4:J10" si="0">B4-C4</f>
-        <v>34.556936807713797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="36" customHeight="1">
+        <f t="shared" ref="J4:J9" si="0">C4-B4</f>
+        <v>-34.556936807713797</v>
+      </c>
+      <c r="K4" s="34">
+        <f t="shared" ref="K4:K9" si="1">E4-D4</f>
+        <v>-11.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
@@ -3179,10 +3560,14 @@
       </c>
       <c r="J5" s="34">
         <f t="shared" si="0"/>
-        <v>17.409379406283399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1">
+        <v>-17.409379406283399</v>
+      </c>
+      <c r="K5" s="34">
+        <f t="shared" si="1"/>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
@@ -3217,10 +3602,14 @@
       </c>
       <c r="J6" s="34">
         <f t="shared" si="0"/>
-        <v>22.3167486241734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
+        <v>-22.3167486241734</v>
+      </c>
+      <c r="K6" s="34">
+        <f t="shared" si="1"/>
+        <v>-6.1000000000000014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="36" customHeight="1">
       <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
@@ -3255,10 +3644,14 @@
       </c>
       <c r="J7" s="34">
         <f t="shared" si="0"/>
-        <v>2.7701349482618904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36" customHeight="1">
+        <v>-2.7701349482618904</v>
+      </c>
+      <c r="K7" s="34">
+        <f t="shared" si="1"/>
+        <v>-5.2000000000000028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36" customHeight="1">
       <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
@@ -3293,10 +3686,14 @@
       </c>
       <c r="J8" s="34">
         <f t="shared" si="0"/>
-        <v>5.0507792817055606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="36" customHeight="1">
+        <v>-5.0507792817055606</v>
+      </c>
+      <c r="K8" s="34">
+        <f t="shared" si="1"/>
+        <v>-14.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36" customHeight="1">
       <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
@@ -3331,10 +3728,14 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" si="0"/>
-        <v>2.2590727556868018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="22">
+        <v>-2.2590727556868018</v>
+      </c>
+      <c r="K9" s="34">
+        <f t="shared" si="1"/>
+        <v>-4.1000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22">
       <c r="A10" s="51" t="s">
         <v>33</v>
       </c>
@@ -3369,7 +3770,7 @@
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3380,7 +3781,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3391,7 +3792,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3400,7 +3801,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3409,7 +3810,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3419,7 +3820,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3455,6 +3856,7 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3986,11 +4388,11 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">MROUND(15*F2/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
@@ -4030,15 +4432,15 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L8" ca="1" si="3">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M8" ca="1" si="4">L3-N3</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N8" ca="1" si="5">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1">
@@ -4074,15 +4476,15 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14">

--- a/BGD_midlinedata.xlsx
+++ b/BGD_midlinedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tidy dataset w stunting" sheetId="4" r:id="rId1"/>
@@ -640,9 +640,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="198">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -947,6 +949,144 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,146 +1108,8 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="198">
+  <cellStyles count="200">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1206,6 +1208,7 @@
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1304,6 +1307,7 @@
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1410,11 +1414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2092816872"/>
-        <c:axId val="-2091930104"/>
+        <c:axId val="2127507512"/>
+        <c:axId val="2127516040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2092816872"/>
+        <c:axId val="2127507512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,12 +1428,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091930104"/>
+        <c:crossAx val="2127516040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091930104"/>
+        <c:axId val="2127516040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092816872"/>
+        <c:crossAx val="2127507512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1560,11 +1564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091856888"/>
-        <c:axId val="-2091886952"/>
+        <c:axId val="2128069336"/>
+        <c:axId val="2128072424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091856888"/>
+        <c:axId val="2128069336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,12 +1578,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091886952"/>
+        <c:crossAx val="2128072424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091886952"/>
+        <c:axId val="2128072424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091856888"/>
+        <c:crossAx val="2128069336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,11 +1806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128660968"/>
-        <c:axId val="2142629896"/>
+        <c:axId val="2128123304"/>
+        <c:axId val="2128126376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128660968"/>
+        <c:axId val="2128123304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,12 +1820,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142629896"/>
+        <c:crossAx val="2128126376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142629896"/>
+        <c:axId val="2128126376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,14 +1836,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128660968"/>
+        <c:crossAx val="2128123304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1869,7 +1872,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1967,11 +1969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142687960"/>
-        <c:axId val="2142691064"/>
+        <c:axId val="2128150856"/>
+        <c:axId val="2128153960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142687960"/>
+        <c:axId val="2128150856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,12 +1983,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142691064"/>
+        <c:crossAx val="2128153960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142691064"/>
+        <c:axId val="2128153960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,14 +1999,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142687960"/>
+        <c:crossAx val="2128150856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2117,11 +2118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142722360"/>
-        <c:axId val="2142725464"/>
+        <c:axId val="2128180792"/>
+        <c:axId val="2128183880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2142722360"/>
+        <c:axId val="2128180792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2132,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142725464"/>
+        <c:crossAx val="2128183880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2142725464"/>
+        <c:axId val="2128183880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,14 +2148,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142722360"/>
+        <c:crossAx val="2128180792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2184,7 +2184,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2282,11 +2281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129183752"/>
-        <c:axId val="2139961912"/>
+        <c:axId val="2128208616"/>
+        <c:axId val="2128211720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129183752"/>
+        <c:axId val="2128208616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,12 +2295,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139961912"/>
+        <c:crossAx val="2128211720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139961912"/>
+        <c:axId val="2128211720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,14 +2311,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129183752"/>
+        <c:crossAx val="2128208616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2857,7 +2855,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2872,483 +2870,483 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="74" customFormat="1" ht="34">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:8" s="65" customFormat="1" ht="34">
+      <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="72">
         <v>0.13559322033898299</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="72">
         <f>'dataset for printing'!D2/100</f>
         <v>0.55799999999999994</v>
       </c>
-      <c r="E2" s="80">
-        <v>0</v>
-      </c>
-      <c r="F2" s="80">
+      <c r="E2" s="71">
+        <v>0</v>
+      </c>
+      <c r="F2" s="71">
         <v>10</v>
       </c>
-      <c r="G2" s="80">
-        <v>0</v>
-      </c>
-      <c r="H2" s="82">
+      <c r="G2" s="71">
+        <v>0</v>
+      </c>
+      <c r="H2" s="73">
         <f>F2+E2</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="76">
         <v>0.50337078651685396</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="76">
         <f>'dataset for printing'!D3/100</f>
         <v>0.52700000000000002</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="75">
         <v>10</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="75">
         <v>5</v>
       </c>
-      <c r="G3" s="84">
-        <v>0</v>
-      </c>
-      <c r="H3" s="86">
+      <c r="G3" s="75">
+        <v>0</v>
+      </c>
+      <c r="H3" s="77">
         <f t="shared" ref="H3:H8" si="0">F3+E3</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="76">
         <v>0.30668016194331998</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="76">
         <f>'dataset for printing'!D4/100</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="75">
         <v>10</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="75">
         <v>5</v>
       </c>
-      <c r="G4" s="84">
-        <v>0</v>
-      </c>
-      <c r="H4" s="86">
+      <c r="G4" s="75">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="76">
         <v>0.40928270042194098</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="76">
         <f>'dataset for printing'!D5/100</f>
         <v>0.40200000000000002</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="75">
         <v>5</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="75">
         <v>5</v>
       </c>
-      <c r="G5" s="84">
-        <v>0</v>
-      </c>
-      <c r="H5" s="86">
+      <c r="G5" s="75">
+        <v>0</v>
+      </c>
+      <c r="H5" s="77">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="76">
         <v>6.1567164179104503E-2</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="76">
         <f>'dataset for printing'!D6/100</f>
         <v>0.48100000000000004</v>
       </c>
-      <c r="E6" s="84">
-        <v>0</v>
-      </c>
-      <c r="F6" s="84">
-        <v>0</v>
-      </c>
-      <c r="G6" s="84">
-        <v>0</v>
-      </c>
-      <c r="H6" s="86">
+      <c r="E6" s="75">
+        <v>0</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0</v>
+      </c>
+      <c r="G6" s="75">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="76">
         <v>6.1567164179104503E-2</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="76">
         <f>'dataset for printing'!D7/100</f>
         <v>0.48100000000000004</v>
       </c>
-      <c r="E7" s="84">
-        <v>0</v>
-      </c>
-      <c r="F7" s="84">
-        <v>0</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0</v>
-      </c>
-      <c r="H7" s="86">
+      <c r="E7" s="75">
+        <v>0</v>
+      </c>
+      <c r="F7" s="75">
+        <v>0</v>
+      </c>
+      <c r="G7" s="75">
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="80">
         <v>0.20769230769230801</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="80">
         <f>'dataset for printing'!D8/100</f>
         <v>0.53400000000000003</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="79">
         <f>K10</f>
         <v>0</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="79">
         <v>10</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
-      <c r="H8" s="90">
+      <c r="G8" s="79">
+        <v>0</v>
+      </c>
+      <c r="H8" s="81">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="84">
         <f>'dataset for printing'!B9/100</f>
         <v>0.2492926</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="84">
         <f>'dataset for printing (final)'!D10/100</f>
         <v>0.50600000000000001</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="83">
         <f>SUM(E2:E8)</f>
         <v>25</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="83">
         <f>SUM(F2:F8)</f>
         <v>35</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="83">
         <v>10</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="85">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="72">
         <v>7.7942322681215901E-4</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="72">
         <f>'dataset for printing (final)'!E3/100</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="E10" s="80">
-        <v>0</v>
-      </c>
-      <c r="F10" s="80">
+      <c r="E10" s="71">
+        <v>0</v>
+      </c>
+      <c r="F10" s="71">
         <v>10</v>
       </c>
-      <c r="G10" s="80">
-        <v>0</v>
-      </c>
-      <c r="H10" s="82">
+      <c r="G10" s="71">
+        <v>0</v>
+      </c>
+      <c r="H10" s="73">
         <f>F10+E10</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="76">
         <v>0.15780141843971601</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="76">
         <f>'dataset for printing (final)'!E4/100</f>
         <v>0.41299999999999998</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="75">
         <v>10</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="75">
         <v>5</v>
       </c>
-      <c r="G11" s="84">
-        <v>0</v>
-      </c>
-      <c r="H11" s="86">
+      <c r="G11" s="75">
+        <v>0</v>
+      </c>
+      <c r="H11" s="77">
         <f t="shared" ref="H11:H16" si="1">F11+E11</f>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="76">
         <v>0.132586367880486</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="76">
         <f>'dataset for printing (final)'!E5/100</f>
         <v>0.433</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="75">
         <v>10</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="75">
         <v>5</v>
       </c>
-      <c r="G12" s="84">
-        <v>0</v>
-      </c>
-      <c r="H12" s="86">
+      <c r="G12" s="75">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="76">
         <v>0.18611521418020699</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="76">
         <f>'dataset for printing (final)'!E6/100</f>
         <v>0.34100000000000003</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="75">
         <v>5</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="75">
         <v>5</v>
       </c>
-      <c r="G13" s="84">
-        <v>0</v>
-      </c>
-      <c r="H13" s="86">
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="77">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="76">
         <v>3.3865814696485599E-2</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="76">
         <f>'dataset for printing (final)'!E7/100</f>
         <v>0.42899999999999999</v>
       </c>
-      <c r="E14" s="84">
-        <v>0</v>
-      </c>
-      <c r="F14" s="84">
-        <v>0</v>
-      </c>
-      <c r="G14" s="84">
-        <v>0</v>
-      </c>
-      <c r="H14" s="86">
+      <c r="E14" s="75">
+        <v>0</v>
+      </c>
+      <c r="F14" s="75">
+        <v>0</v>
+      </c>
+      <c r="G14" s="75">
+        <v>0</v>
+      </c>
+      <c r="H14" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="76">
         <v>1.10593713620489E-2</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="76">
         <f>'dataset for printing (final)'!E8/100</f>
         <v>0.33700000000000002</v>
       </c>
-      <c r="E15" s="84">
-        <v>0</v>
-      </c>
-      <c r="F15" s="84">
-        <v>0</v>
-      </c>
-      <c r="G15" s="84">
-        <v>0</v>
-      </c>
-      <c r="H15" s="86">
+      <c r="E15" s="75">
+        <v>0</v>
+      </c>
+      <c r="F15" s="75">
+        <v>0</v>
+      </c>
+      <c r="G15" s="75">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="80">
         <v>0.18510158013544001</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="80">
         <f>'dataset for printing (final)'!E9/100</f>
         <v>0.49299999999999999</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="79">
         <f>K18</f>
         <v>0</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="79">
         <v>10</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
-      <c r="H16" s="90">
+      <c r="G16" s="79">
+        <v>0</v>
+      </c>
+      <c r="H16" s="81">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="80">
         <f>'dataset for printing'!C9/100</f>
         <v>0.10785980000000001</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="80">
         <f>'dataset for printing (final)'!E10/100</f>
         <v>0.41299999999999998</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="79">
         <f>SUM(E10:E16)</f>
         <v>25</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="79">
         <f>SUM(F10:F16)</f>
         <v>35</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="79">
         <v>10</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="81">
         <v>70</v>
       </c>
     </row>
@@ -3371,7 +3369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -3390,48 +3388,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="41" customFormat="1" ht="68" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:11" s="40" customFormat="1" ht="44">
-      <c r="A2" s="50"/>
-      <c r="B2" s="65">
+      <c r="A2" s="87"/>
+      <c r="B2" s="56">
         <v>1998</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="57">
         <v>2012</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="56">
         <v>2004</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="57">
         <v>2011</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="62" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="40" t="s">
@@ -3442,24 +3440,24 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="48">
         <f>'tidy dataset'!D2*100</f>
         <v>13.559322033898299</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="49">
         <f>'tidy dataset'!D9*100</f>
         <v>7.7942322681215898E-2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="48">
         <v>55.8</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="49">
         <v>45.1</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="48">
         <v>0</v>
       </c>
       <c r="G3" s="36">
@@ -3470,7 +3468,7 @@
         <f>'tidy dataset'!F2</f>
         <v>10</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="47">
         <f xml:space="preserve"> 'tidy dataset'!G2</f>
         <v>10</v>
       </c>
@@ -3484,24 +3482,24 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="51">
         <f>'tidy dataset'!D3*100</f>
         <v>50.337078651685395</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="52">
         <f>'tidy dataset'!D10*100</f>
         <v>15.780141843971601</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="51">
         <v>52.7</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <v>41.3</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="51">
         <v>0</v>
       </c>
       <c r="G4" s="37">
@@ -3512,7 +3510,7 @@
         <f>'tidy dataset'!F3</f>
         <v>5</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G3</f>
         <v>15</v>
       </c>
@@ -3526,24 +3524,24 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="51">
         <f>'tidy dataset'!D4*100</f>
         <v>30.668016194331997</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="52">
         <f>'tidy dataset'!D11*100</f>
         <v>13.2586367880486</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="51">
         <v>52.8</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <v>43.3</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="51">
         <v>0</v>
       </c>
       <c r="G5" s="37">
@@ -3554,7 +3552,7 @@
         <f>'tidy dataset'!F4</f>
         <v>5</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G4</f>
         <v>15</v>
       </c>
@@ -3568,24 +3566,24 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="51">
         <f>'tidy dataset'!D5*100</f>
         <v>40.9282700421941</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="52">
         <f>'tidy dataset'!D12*100</f>
         <v>18.6115214180207</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="51">
         <v>40.200000000000003</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <v>34.1</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="51">
         <v>0</v>
       </c>
       <c r="G6" s="37">
@@ -3596,7 +3594,7 @@
         <f>'tidy dataset'!F5</f>
         <v>5</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G5</f>
         <v>10</v>
       </c>
@@ -3610,24 +3608,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="51">
         <f>'tidy dataset'!D6*100</f>
         <v>6.1567164179104505</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="52">
         <f>'tidy dataset'!D13*100</f>
         <v>3.3865814696485601</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="51">
         <v>48.1</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <v>42.9</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="51">
         <v>0</v>
       </c>
       <c r="G7" s="37">
@@ -3638,7 +3636,7 @@
         <f>'tidy dataset'!F6</f>
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G6</f>
         <v>0</v>
       </c>
@@ -3652,24 +3650,24 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="51">
         <f>'tidy dataset'!D7*100</f>
         <v>6.1567164179104505</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="52">
         <f>'tidy dataset'!D14*100</f>
         <v>1.10593713620489</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="51">
         <v>48.1</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <v>33.700000000000003</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="51">
         <v>0</v>
       </c>
       <c r="G8" s="37">
@@ -3680,7 +3678,7 @@
         <f>'tidy dataset'!F7</f>
         <v>0</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G7</f>
         <v>0</v>
       </c>
@@ -3694,35 +3692,35 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="54">
         <f>'tidy dataset'!D8*100</f>
         <v>20.769230769230802</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="55">
         <f>'tidy dataset'!D15*100</f>
         <v>18.510158013544</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="54">
         <v>53.4</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="55">
         <v>49.3</v>
       </c>
-      <c r="F9" s="69">
-        <v>0</v>
-      </c>
-      <c r="G9" s="70">
+      <c r="F9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="61">
         <f>'tidy dataset'!E8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="61">
         <f>'tidy dataset'!F8</f>
         <v>10</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="63">
         <f xml:space="preserve"> 'tidy dataset'!G8</f>
         <v>10</v>
       </c>
@@ -3736,35 +3734,35 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="22">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="46">
         <f>0.2492926*100</f>
         <v>24.929259999999999</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="45">
         <f xml:space="preserve"> 0.1078598*100</f>
         <v>10.78598</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="43">
         <v>50.6</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="43">
         <v>41.3</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="46">
         <v>10</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="44">
         <f>SUM(G3:G9)</f>
         <v>25</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="44">
         <f>SUM(H3:H9)</f>
         <v>35</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="64">
         <f>H10+G10+F10</f>
         <v>70</v>
       </c>
@@ -3869,7 +3867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -3888,70 +3886,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="41" customFormat="1" ht="68" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" ht="44">
-      <c r="A2" s="50"/>
-      <c r="B2" s="65">
+      <c r="A2" s="87"/>
+      <c r="B2" s="56">
         <v>1998</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="57">
         <v>2012</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="56">
         <v>2004</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="57">
         <v>2011</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="48">
         <f>'tidy dataset'!D2*100</f>
         <v>13.559322033898299</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="49">
         <f>'tidy dataset'!D9*100</f>
         <v>7.7942322681215898E-2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="48">
         <v>55.8</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="49">
         <v>45.1</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="48">
         <v>0</v>
       </c>
       <c r="G3" s="36">
@@ -3962,30 +3960,30 @@
         <f>'tidy dataset'!F2</f>
         <v>10</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="47">
         <f xml:space="preserve"> 'tidy dataset'!G2</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="51">
         <f>'tidy dataset'!D3*100</f>
         <v>50.337078651685395</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="52">
         <f>'tidy dataset'!D10*100</f>
         <v>15.780141843971601</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="51">
         <v>52.7</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <v>41.3</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="51">
         <v>0</v>
       </c>
       <c r="G4" s="37">
@@ -3996,30 +3994,30 @@
         <f>'tidy dataset'!F3</f>
         <v>5</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G3</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="51">
         <f>'tidy dataset'!D4*100</f>
         <v>30.668016194331997</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="52">
         <f>'tidy dataset'!D11*100</f>
         <v>13.2586367880486</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="51">
         <v>52.8</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <v>43.3</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="51">
         <v>0</v>
       </c>
       <c r="G5" s="37">
@@ -4030,30 +4028,30 @@
         <f>'tidy dataset'!F4</f>
         <v>5</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G4</f>
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="51">
         <f>'tidy dataset'!D5*100</f>
         <v>40.9282700421941</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="52">
         <f>'tidy dataset'!D12*100</f>
         <v>18.6115214180207</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="51">
         <v>40.200000000000003</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <v>34.1</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="51">
         <v>0</v>
       </c>
       <c r="G6" s="37">
@@ -4064,30 +4062,30 @@
         <f>'tidy dataset'!F5</f>
         <v>5</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G5</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="51">
         <f>'tidy dataset'!D6*100</f>
         <v>6.1567164179104505</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="52">
         <f>'tidy dataset'!D13*100</f>
         <v>3.3865814696485601</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="51">
         <v>48.1</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <v>42.9</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="51">
         <v>0</v>
       </c>
       <c r="G7" s="37">
@@ -4098,30 +4096,30 @@
         <f>'tidy dataset'!F6</f>
         <v>0</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="51">
         <f>'tidy dataset'!D7*100</f>
         <v>6.1567164179104505</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="52">
         <f>'tidy dataset'!D14*100</f>
         <v>1.10593713620489</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="51">
         <v>48.1</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <v>33.700000000000003</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="51">
         <v>0</v>
       </c>
       <c r="G8" s="37">
@@ -4132,75 +4130,75 @@
         <f>'tidy dataset'!F7</f>
         <v>0</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="50">
         <f xml:space="preserve"> 'tidy dataset'!G7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="54">
         <f>'tidy dataset'!D8*100</f>
         <v>20.769230769230802</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="55">
         <f>'tidy dataset'!D15*100</f>
         <v>18.510158013544</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="54">
         <v>53.4</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="55">
         <v>49.3</v>
       </c>
-      <c r="F9" s="69">
-        <v>0</v>
-      </c>
-      <c r="G9" s="70">
+      <c r="F9" s="60">
+        <v>0</v>
+      </c>
+      <c r="G9" s="61">
         <f>'tidy dataset'!E8</f>
         <v>0</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="61">
         <f>'tidy dataset'!F8</f>
         <v>10</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="63">
         <f xml:space="preserve"> 'tidy dataset'!G8</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="46">
         <f>0.2492926*100</f>
         <v>24.929259999999999</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="45">
         <f xml:space="preserve"> 0.1078598*100</f>
         <v>10.78598</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="43">
         <v>50.6</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="43">
         <v>41.3</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="46">
         <v>10</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="44">
         <f>SUM(G3:G9)</f>
         <v>25</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="44">
         <f>SUM(H3:H9)</f>
         <v>35</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="64">
         <f>H10+G10+F10</f>
         <v>70</v>
       </c>
@@ -4388,7 +4386,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">MROUND(15*F2/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M2" s="9">
         <f ca="1">L2-N2</f>
@@ -4396,7 +4394,7 @@
       </c>
       <c r="N2" s="9">
         <f ca="1">MROUND(I2*C2*RANDBETWEEN(0.5,3),5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1">
@@ -4432,7 +4430,7 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L8" ca="1" si="3">MROUND(15*F3/F$2 + RANDBETWEEN(-5, 5),5)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M8" ca="1" si="4">L3-N3</f>
@@ -4440,7 +4438,7 @@
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N8" ca="1" si="5">MROUND(I3*C3*RANDBETWEEN(0.5,3),5)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1">
@@ -4476,11 +4474,11 @@
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="5"/>
